--- a/data/trans_orig/IP36A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP36A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76987EA7-326D-4099-813E-7BC4A348892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCA5E46-DE04-4C42-BCE5-3E143FAC2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF225539-09C6-4F9A-81A8-10B2DE5B6DBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91049E53-DD5D-40AD-B91C-B07D02F249C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="341">
   <si>
     <t>Adultos según si perciben alguna pensión en 2007 (Tasa respuesta: 44,01%)</t>
   </si>
@@ -80,22 +80,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,97%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>97,48%</t>
   </si>
   <si>
-    <t>91,03%</t>
+    <t>92,54%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,16 +113,16 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>91,31%</t>
+    <t>90,65%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,55 +134,55 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -191,10 +191,10 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>8,01%</t>
@@ -203,31 +203,31 @@
     <t>3,89%</t>
   </si>
   <si>
-    <t>14,78%</t>
+    <t>14,08%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>85,22%</t>
+    <t>85,92%</t>
   </si>
   <si>
     <t>96,11%</t>
@@ -236,10 +236,10 @@
     <t>92,91%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -248,334 +248,319 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,02%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>7,76%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,74%</t>
   </si>
   <si>
     <t>12,69%</t>
@@ -584,16 +569,16 @@
     <t>10,07%</t>
   </si>
   <si>
-    <t>11,99%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>92,24%</t>
   </si>
   <si>
     <t>89,98%</t>
@@ -602,460 +587,481 @@
     <t>87,31%</t>
   </si>
   <si>
-    <t>92,31%</t>
+    <t>92,26%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2015 (Tasa respuesta: 49,58%)</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2016 (Tasa respuesta: 49,58%)</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 4,06%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 4,06%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>32,42%</t>
   </si>
   <si>
     <t>93,34%</t>
   </si>
   <si>
-    <t>63,45%</t>
+    <t>66,42%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>73,97%</t>
+    <t>71,13%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>62,13%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>41,85%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>37,87%</t>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>58,15%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29219D83-733F-47A3-92D7-3ABB9597CF15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9424F9A-3EA5-41D3-9D55-75D1650B5EA4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,13 +2232,13 @@
         <v>22499</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -2241,13 +2247,13 @@
         <v>44624</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2268,13 @@
         <v>293505</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -2277,13 +2283,13 @@
         <v>278989</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>859</v>
@@ -2292,13 +2298,13 @@
         <v>572494</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,7 +2360,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121E9BE0-97B8-4F4A-8F78-AE424EF459BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A7FA8-D817-4A78-82A1-63DD4939D3AA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2391,7 +2397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2498,13 +2504,13 @@
         <v>6950</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2513,13 +2519,13 @@
         <v>9024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2528,13 +2534,13 @@
         <v>15974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2555,13 @@
         <v>75846</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -2564,13 +2570,13 @@
         <v>73018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -2579,13 +2585,13 @@
         <v>148864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2659,13 @@
         <v>15017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2668,13 +2674,13 @@
         <v>10814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2683,13 +2689,13 @@
         <v>25831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2710,13 @@
         <v>128458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>170</v>
@@ -2719,13 +2725,13 @@
         <v>119024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>349</v>
@@ -2734,13 +2740,13 @@
         <v>247482</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2814,13 @@
         <v>7374</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2823,13 +2829,13 @@
         <v>5186</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2838,13 +2844,13 @@
         <v>12560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2865,13 @@
         <v>73238</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -2874,13 +2880,13 @@
         <v>77399</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -2889,13 +2895,13 @@
         <v>150637</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2969,13 @@
         <v>12417</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -2978,13 +2984,13 @@
         <v>13474</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>37</v>
@@ -2993,13 +2999,13 @@
         <v>25891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3020,13 @@
         <v>93784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -3029,13 +3035,13 @@
         <v>76263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>246</v>
@@ -3044,13 +3050,13 @@
         <v>170047</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>41759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -3133,13 +3139,13 @@
         <v>38497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -3148,13 +3154,13 @@
         <v>80256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3175,13 @@
         <v>371325</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>496</v>
@@ -3184,13 +3190,13 @@
         <v>345705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>1024</v>
@@ -3199,13 +3205,13 @@
         <v>717029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,7 +3267,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FFF0FF-BEE0-4B8B-8359-DF3669B6F3E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D227AB-C910-4CCE-8660-15DFEC43B088}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3298,7 +3304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3405,13 +3411,13 @@
         <v>3251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3420,13 +3426,13 @@
         <v>4203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3435,13 +3441,13 @@
         <v>7454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3462,13 @@
         <v>57264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>102</v>
@@ -3471,13 +3477,13 @@
         <v>65109</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -3486,13 +3492,13 @@
         <v>122373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3566,13 @@
         <v>13056</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3575,13 +3581,13 @@
         <v>4845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3590,13 +3596,13 @@
         <v>17902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3617,13 @@
         <v>111192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>149</v>
@@ -3626,13 +3632,13 @@
         <v>95884</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>310</v>
@@ -3641,13 +3647,13 @@
         <v>207075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3721,13 @@
         <v>12661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3730,13 +3736,13 @@
         <v>11985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3745,13 +3751,13 @@
         <v>24646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3772,13 @@
         <v>82448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -3781,13 +3787,13 @@
         <v>83679</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
@@ -3796,13 +3802,13 @@
         <v>166127</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3876,13 @@
         <v>15708</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3885,13 +3891,13 @@
         <v>8851</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3900,13 +3906,13 @@
         <v>24559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3927,13 @@
         <v>68427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -3936,13 +3942,13 @@
         <v>82567</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -3951,13 +3957,13 @@
         <v>150994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4031,13 @@
         <v>44676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -4040,13 +4046,13 @@
         <v>29884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4055,13 +4061,13 @@
         <v>74560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4082,13 @@
         <v>319331</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>489</v>
@@ -4091,13 +4097,13 @@
         <v>327238</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>942</v>
@@ -4106,10 +4112,10 @@
         <v>646570</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>274</v>
@@ -4168,7 +4174,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +4194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1656F260-1D12-4384-8652-B0EB27E53A27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3019229-CC3B-444E-A051-5A2E96832EB5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4622,13 +4628,13 @@
         <v>352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4637,13 +4643,13 @@
         <v>573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4652,13 +4658,13 @@
         <v>925</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,10 +4679,10 @@
         <v>2788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>22</v>
@@ -4688,10 +4694,10 @@
         <v>8023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
@@ -4703,10 +4709,10 @@
         <v>10812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>22</v>
@@ -4777,13 +4783,13 @@
         <v>5633</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4792,13 +4798,13 @@
         <v>3125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4807,13 +4813,13 @@
         <v>8758</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4834,13 @@
         <v>10715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4843,13 +4849,13 @@
         <v>13272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -4858,13 +4864,13 @@
         <v>23987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4938,13 @@
         <v>6351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4947,13 +4953,13 @@
         <v>4497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4962,13 +4968,13 @@
         <v>10848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4989,13 @@
         <v>17865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4998,13 +5004,13 @@
         <v>25825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -5013,13 +5019,13 @@
         <v>43689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5081,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP36A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP36A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCA5E46-DE04-4C42-BCE5-3E143FAC2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D671C03A-7846-4248-AAFA-A55B0AF9A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91049E53-DD5D-40AD-B91C-B07D02F249C7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4D91DCA6-90EF-4EAA-A11A-3B7B7B79FD6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Adultos según si perciben alguna pensión en 2007 (Tasa respuesta: 44,01%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,994 +74,1075 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2016 (Tasa respuesta: 49,58%)</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2016 (Tasa respuesta: 49,58%)</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 34,43%)</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 4,06%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9424F9A-3EA5-41D3-9D55-75D1650B5EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F070E3-D3F5-4A22-8BFC-04407034EC8C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1594,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1413</v>
+        <v>1107</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1609,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1107</v>
+        <v>1413</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1642,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7">
-        <v>54583</v>
+        <v>41432</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1657,10 +1738,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>41432</v>
+        <v>54583</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1693,25 +1774,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7">
+        <v>42539</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>83</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>55996</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>66</v>
-      </c>
-      <c r="I6" s="7">
-        <v>42539</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -1746,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>7279</v>
+        <v>8272</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1761,10 +1842,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>8272</v>
+        <v>7279</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1797,10 +1878,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7">
-        <v>100607</v>
+        <v>95723</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1812,10 +1893,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I8" s="7">
-        <v>95723</v>
+        <v>100607</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1848,25 +1929,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>154</v>
+      </c>
+      <c r="D9" s="7">
+        <v>103995</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>162</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>107886</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>154</v>
-      </c>
-      <c r="I9" s="7">
-        <v>103995</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1901,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>3341</v>
+        <v>5776</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1916,10 +1997,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5776</v>
+        <v>3341</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1952,10 +2033,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7">
-        <v>53229</v>
+        <v>66302</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1967,10 +2048,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I11" s="7">
-        <v>66302</v>
+        <v>53229</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2003,25 +2084,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>107</v>
+      </c>
+      <c r="D12" s="7">
+        <v>72078</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>86</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>56570</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>107</v>
-      </c>
-      <c r="I12" s="7">
-        <v>72078</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -2056,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>10092</v>
+        <v>7345</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2071,10 +2152,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>7345</v>
+        <v>10092</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2095,10 +2176,10 @@
         <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,34 +2188,34 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>113</v>
+      </c>
+      <c r="D14" s="7">
+        <v>75531</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="7">
         <v>128</v>
       </c>
-      <c r="D14" s="7">
-        <v>85086</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>85087</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>113</v>
-      </c>
-      <c r="I14" s="7">
-        <v>75531</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -2143,13 +2224,13 @@
         <v>160617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,25 +2239,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>124</v>
+      </c>
+      <c r="D15" s="7">
+        <v>82876</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>144</v>
       </c>
-      <c r="D15" s="7">
-        <v>95178</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>124</v>
-      </c>
       <c r="I15" s="7">
-        <v>82876</v>
+        <v>95179</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -2211,34 +2292,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22499</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
         <v>34</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>22125</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22499</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -2247,13 +2328,13 @@
         <v>44624</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,28 +2343,28 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>418</v>
+      </c>
+      <c r="D17" s="7">
+        <v>278989</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
         <v>441</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>293505</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>418</v>
-      </c>
-      <c r="I17" s="7">
-        <v>278989</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>97</v>
@@ -2313,25 +2394,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>451</v>
+      </c>
+      <c r="D18" s="7">
+        <v>301488</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>475</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>315630</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>451</v>
-      </c>
-      <c r="I18" s="7">
-        <v>301488</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -2380,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A7FA8-D817-4A78-82A1-63DD4939D3AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A8088-1159-4006-8D0F-961068B2BCD0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2498,10 +2579,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>6950</v>
+        <v>9024</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>104</v>
@@ -2513,19 +2594,19 @@
         <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>9024</v>
+        <v>6950</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2534,13 +2615,13 @@
         <v>15974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,34 +2630,34 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>110</v>
+      </c>
+      <c r="D5" s="7">
+        <v>73018</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
         <v>107</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>75846</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="7">
-        <v>110</v>
-      </c>
-      <c r="I5" s="7">
-        <v>73018</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -2585,13 +2666,13 @@
         <v>148864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,25 +2681,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>124</v>
+      </c>
+      <c r="D6" s="7">
+        <v>82042</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>117</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>82796</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>124</v>
-      </c>
-      <c r="I6" s="7">
-        <v>82042</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -2653,34 +2734,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10814</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>15017</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="7">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10814</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -2689,13 +2770,13 @@
         <v>25831</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,34 +2785,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
+        <v>170</v>
+      </c>
+      <c r="D8" s="7">
+        <v>119024</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="7">
         <v>179</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>128458</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="7">
-        <v>170</v>
-      </c>
-      <c r="I8" s="7">
-        <v>119024</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="M8" s="7">
         <v>349</v>
@@ -2755,25 +2836,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>186</v>
+      </c>
+      <c r="D9" s="7">
+        <v>129838</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>201</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>143475</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>186</v>
-      </c>
-      <c r="I9" s="7">
-        <v>129838</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -2808,10 +2889,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>7374</v>
+        <v>5186</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>138</v>
@@ -2823,19 +2904,19 @@
         <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>5186</v>
+        <v>7374</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2844,13 +2925,13 @@
         <v>12560</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,10 +2940,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>73238</v>
+        <v>77399</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>146</v>
@@ -2874,10 +2955,10 @@
         <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7">
-        <v>77399</v>
+        <v>73238</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>149</v>
@@ -2886,7 +2967,7 @@
         <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -2895,10 +2976,10 @@
         <v>150637</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>153</v>
@@ -2910,25 +2991,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>116</v>
+      </c>
+      <c r="D12" s="7">
+        <v>82585</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>115</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>80612</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>116</v>
-      </c>
-      <c r="I12" s="7">
-        <v>82585</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -2963,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>12417</v>
+        <v>13474</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>154</v>
@@ -2978,10 +3059,10 @@
         <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>13474</v>
+        <v>12417</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>157</v>
@@ -2999,13 +3080,13 @@
         <v>25891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,34 +3095,34 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>108</v>
+      </c>
+      <c r="D14" s="7">
+        <v>76263</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="7">
         <v>138</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>93784</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="7">
-        <v>108</v>
-      </c>
-      <c r="I14" s="7">
-        <v>76263</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>246</v>
@@ -3050,13 +3131,13 @@
         <v>170047</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,25 +3146,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>127</v>
+      </c>
+      <c r="D15" s="7">
+        <v>89737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>156</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>106201</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>127</v>
-      </c>
-      <c r="I15" s="7">
-        <v>89737</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -3118,34 +3199,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38497</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
         <v>61</v>
       </c>
-      <c r="D16" s="7">
-        <v>41759</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
       <c r="I16" s="7">
-        <v>38497</v>
+        <v>41758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -3154,13 +3235,13 @@
         <v>80256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,34 +3250,34 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>496</v>
+      </c>
+      <c r="D17" s="7">
+        <v>345705</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="7">
         <v>528</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>371325</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="7">
-        <v>496</v>
-      </c>
-      <c r="I17" s="7">
-        <v>345705</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1024</v>
@@ -3205,13 +3286,13 @@
         <v>717029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,25 +3301,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>553</v>
+      </c>
+      <c r="D18" s="7">
+        <v>384202</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>589</v>
       </c>
-      <c r="D18" s="7">
-        <v>413084</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>553</v>
-      </c>
       <c r="I18" s="7">
-        <v>384202</v>
+        <v>413083</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -3287,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D227AB-C910-4CCE-8660-15DFEC43B088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E099E6-51F1-4A1C-AC2D-6C37842CE031}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3304,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3405,34 +3486,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4203</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>3251</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4203</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3441,13 +3522,13 @@
         <v>7454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,34 +3537,34 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>102</v>
+      </c>
+      <c r="D5" s="7">
+        <v>65109</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="7">
         <v>85</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>57264</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="7">
-        <v>102</v>
-      </c>
-      <c r="I5" s="7">
-        <v>65109</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>187</v>
@@ -3492,13 +3573,13 @@
         <v>122373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,25 +3588,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>69312</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>91</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>60515</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
-      <c r="I6" s="7">
-        <v>69312</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3560,34 +3641,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4845</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>13056</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4845</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3596,13 +3677,13 @@
         <v>17902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,34 +3692,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
+        <v>149</v>
+      </c>
+      <c r="D8" s="7">
+        <v>95884</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="7">
         <v>161</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>111192</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="7">
-        <v>149</v>
-      </c>
-      <c r="I8" s="7">
-        <v>95884</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>310</v>
@@ -3647,13 +3728,13 @@
         <v>207075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,25 +3743,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>157</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100729</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>181</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>124248</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>157</v>
-      </c>
-      <c r="I9" s="7">
-        <v>100729</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3715,34 +3796,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11985</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="7">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>12661</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11985</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3751,13 +3832,13 @@
         <v>24646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,34 +3847,34 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>119</v>
+      </c>
+      <c r="D11" s="7">
+        <v>83679</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="7">
         <v>113</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>82448</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="7">
-        <v>119</v>
-      </c>
-      <c r="I11" s="7">
-        <v>83679</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
@@ -3802,13 +3883,13 @@
         <v>166127</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,25 +3898,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7">
+        <v>95664</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>130</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>95109</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>138</v>
-      </c>
-      <c r="I12" s="7">
-        <v>95664</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -3870,34 +3951,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8851</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="7">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>15708</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8851</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3906,13 +3987,13 @@
         <v>24559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,34 +4002,34 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>119</v>
+      </c>
+      <c r="D14" s="7">
+        <v>82567</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="7">
         <v>94</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>68427</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H14" s="7">
-        <v>119</v>
-      </c>
-      <c r="I14" s="7">
-        <v>82567</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -3957,13 +4038,13 @@
         <v>150994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,25 +4053,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>133</v>
+      </c>
+      <c r="D15" s="7">
+        <v>91418</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>115</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>84135</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>133</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91418</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4025,34 +4106,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>29884</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="7">
         <v>64</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>44676</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>29884</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4061,13 +4142,13 @@
         <v>74560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,34 +4157,34 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>489</v>
+      </c>
+      <c r="D17" s="7">
+        <v>327238</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="7">
         <v>453</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>319331</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H17" s="7">
-        <v>489</v>
-      </c>
-      <c r="I17" s="7">
-        <v>327238</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>942</v>
@@ -4112,13 +4193,13 @@
         <v>646570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,25 +4208,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>537</v>
+      </c>
+      <c r="D18" s="7">
+        <v>357122</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="7">
         <v>517</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>364007</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>537</v>
-      </c>
-      <c r="I18" s="7">
-        <v>357122</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -4194,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3019229-CC3B-444E-A051-5A2E96832EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8544C3CA-A538-49A3-8E9D-0B529342A1B8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4211,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4312,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1953</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3330</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5282</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,49 +4444,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>352</v>
+        <v>16119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>1433</v>
+        <v>15202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>1785</v>
+        <v>31322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>352</v>
+        <v>18072</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -4429,10 +4510,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7">
-        <v>1433</v>
+        <v>18532</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -4444,10 +4525,10 @@
         <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>1785</v>
+        <v>36604</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -4467,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>366</v>
+        <v>7475</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>800</v>
+        <v>17025</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>1165</v>
+        <v>24500</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,49 +4599,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>4010</v>
+        <v>42879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>3096</v>
+        <v>45112</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="N8" s="7">
-        <v>7106</v>
+        <v>87991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>4376</v>
+        <v>50354</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -4584,10 +4665,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="I9" s="7">
-        <v>3896</v>
+        <v>62137</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -4599,10 +4680,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="N9" s="7">
-        <v>8271</v>
+        <v>112491</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -4622,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>352</v>
+        <v>17156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
       <c r="I10" s="7">
-        <v>573</v>
+        <v>9952</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>925</v>
+        <v>27108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,49 +4754,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>2788</v>
+        <v>49640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>8023</v>
+        <v>54775</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>10812</v>
+        <v>104414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7">
-        <v>3140</v>
+        <v>66796</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -4739,10 +4820,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I12" s="7">
-        <v>8596</v>
+        <v>64727</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -4754,10 +4835,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="N12" s="7">
-        <v>11737</v>
+        <v>131522</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -4777,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>5633</v>
+        <v>14814</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>3125</v>
+        <v>17745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>8758</v>
+        <v>32558</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,49 +4909,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>10715</v>
+        <v>110242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>13272</v>
+        <v>94748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="N14" s="7">
-        <v>23987</v>
+        <v>204991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7">
-        <v>16348</v>
+        <v>125056</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4894,10 +4975,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="I15" s="7">
-        <v>16397</v>
+        <v>112493</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4909,10 +4990,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="N15" s="7">
-        <v>32745</v>
+        <v>237549</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4932,49 +5013,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>6351</v>
+        <v>41397</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>4497</v>
+        <v>48051</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="N16" s="7">
-        <v>10848</v>
+        <v>89448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,49 +5064,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="D17" s="7">
-        <v>17865</v>
+        <v>218881</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="I17" s="7">
-        <v>25825</v>
+        <v>209837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>65</v>
+        <v>542</v>
       </c>
       <c r="N17" s="7">
-        <v>43689</v>
+        <v>428719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="D18" s="7">
-        <v>24216</v>
+        <v>260278</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -5049,10 +5130,10 @@
         <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="I18" s="7">
-        <v>30322</v>
+        <v>257888</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -5064,10 +5145,10 @@
         <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>78</v>
+        <v>661</v>
       </c>
       <c r="N18" s="7">
-        <v>54537</v>
+        <v>518167</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
